--- a/Question/FrameWorks/Node JS/_I.xlsx
+++ b/Question/FrameWorks/Node JS/_I.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\FrameWorks\Node JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FAF9C7-111B-46AC-8672-0C8174B4D57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BAA93B-7DC5-425A-B9C3-F6A2EF9A9950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -375,7 +375,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
